--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3513718.305969994</v>
+        <v>3511830.724453591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>140.619228472027</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.9621335895198</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.94266389238192</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.1365194952145</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.17792974248621</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132227</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634833</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297951</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.8791668113988</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500687</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709553</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483417</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.599126004630449</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.749002612117799</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1480.395363208549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1094.607110610304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220517</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>709.1532345052515</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>709.1532345052515</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>709.1532345052515</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>709.1532345052515</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4562,7 +4562,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.753074569373</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>656.6110348804735</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>656.6110348804735</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>656.6110348804735</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500977</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>667.8624625746712</v>
+        <v>409.5384547146245</v>
       </c>
       <c r="V10" t="n">
-        <v>667.8624625746712</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>667.8624625746712</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>667.8624625746712</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042117</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>627.7391298106759</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,52 +5273,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028581</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V19" t="n">
-        <v>531.397718270632</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336714</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820799</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996868</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>933.2366688293937</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>643.819498792433</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965586</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030228</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.2415044384088</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.2415044384088</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536188995</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819389</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0340835819389</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.2415044384088</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.0294937553485</v>
+        <v>604.5641438163773</v>
       </c>
       <c r="C31" t="n">
-        <v>374.8541761088125</v>
+        <v>491.3888261698411</v>
       </c>
       <c r="D31" t="n">
-        <v>280.4984019778477</v>
+        <v>397.0330520388761</v>
       </c>
       <c r="E31" t="n">
-        <v>188.3461736768254</v>
+        <v>397.0330520388761</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>305.9039698223365</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>193.4895134235278</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>98.83237025284186</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962055</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1929.308888700401</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.149743897324</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1617.1251939682</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.757420463129</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1184.833797538613</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>951.1774927830231</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>778.9488071663766</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.9170933042174</v>
+        <v>730.4517433652462</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7789,10 +7789,10 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,10 +7837,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970534</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359244</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025288</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>32.92248665775529</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136115</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517037</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179244</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762201</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987065</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>53.61686283108448</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.01209316311787</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542229</v>
+        <v>711938.7403542231</v>
       </c>
       <c r="L2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="M2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>718411.5486312488</v>
+      </c>
+      <c r="O2" t="n">
         <v>718411.5486312485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>718411.5486312482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>718411.5486312484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>718411.5486312483</v>
       </c>
       <c r="P2" t="n">
         <v>718411.5486312484</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979286</v>
+        <v>-111190.3668979284</v>
       </c>
       <c r="C6" t="n">
         <v>478777.5123166158</v>
@@ -26528,37 +26528,37 @@
         <v>478777.5123166158</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393892</v>
+        <v>52010.36336796625</v>
       </c>
       <c r="F6" t="n">
-        <v>577267.858970835</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="G6" t="n">
-        <v>577267.8589708343</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="H6" t="n">
-        <v>577267.8589708343</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="I6" t="n">
-        <v>577267.8589708346</v>
+        <v>577170.399844863</v>
       </c>
       <c r="J6" t="n">
-        <v>400844.6397782417</v>
+        <v>400747.1806522694</v>
       </c>
       <c r="K6" t="n">
-        <v>537937.6343855188</v>
+        <v>537919.1406475847</v>
       </c>
       <c r="L6" t="n">
-        <v>572889.0791475967</v>
+        <v>572889.0791475965</v>
       </c>
       <c r="M6" t="n">
-        <v>448430.970714626</v>
+        <v>448430.9707146263</v>
       </c>
       <c r="N6" t="n">
-        <v>583231.9859484634</v>
+        <v>583231.9859484638</v>
       </c>
       <c r="O6" t="n">
-        <v>583231.9859484633</v>
+        <v>583231.9859484636</v>
       </c>
       <c r="P6" t="n">
         <v>539069.3806456177</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,28 +26741,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>266.2568172696845</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>27.70305839063809</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>323.9333818493295</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.5945811832545</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
-        <v>215.4791044092764</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.5559119209944</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>165.3712490426387</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106053</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076446</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377838</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281922</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>240.01590158928</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
